--- a/data/trans_orig/P14B25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CA53EF-EBFF-4019-9078-5FCBF5B6209E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09AEF042-5E1B-48BD-AD79-DEB6F6E21966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A74115FB-2686-4884-9411-32EA1F80C8CC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB4B4A4-7FE0-4992-98CC-0D5588916F68}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
   <si>
     <t>Población cuyos problemas mentales le limita en 2012 (Tasa respuesta: 0,69%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>67,2%</t>
   </si>
   <si>
-    <t>16,58%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>78,33%</t>
   </si>
   <si>
-    <t>44,72%</t>
+    <t>44,25%</t>
   </si>
   <si>
     <t>32,8%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>83,42%</t>
+    <t>81,64%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,7 +120,7 @@
     <t>21,67%</t>
   </si>
   <si>
-    <t>55,28%</t>
+    <t>55,75%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -129,43 +129,43 @@
     <t>79,5%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>47,76%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>44,36%</t>
+    <t>44,32%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>52,24%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>55,64%</t>
+    <t>55,68%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -174,7 +174,7 @@
     <t>87,0%</t>
   </si>
   <si>
-    <t>42,29%</t>
+    <t>34,53%</t>
   </si>
   <si>
     <t>69,01%</t>
@@ -183,13 +183,13 @@
     <t>81,55%</t>
   </si>
   <si>
-    <t>45,73%</t>
+    <t>40,05%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>57,71%</t>
+    <t>65,47%</t>
   </si>
   <si>
     <t>30,99%</t>
@@ -198,7 +198,7 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>54,27%</t>
+    <t>59,95%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -219,7 +219,7 @@
     <t>85,8%</t>
   </si>
   <si>
-    <t>54,75%</t>
+    <t>58,18%</t>
   </si>
   <si>
     <t>12,46%</t>
@@ -237,61 +237,61 @@
     <t>14,2%</t>
   </si>
   <si>
-    <t>45,25%</t>
+    <t>41,82%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -303,7 +303,7 @@
     <t>74,47%</t>
   </si>
   <si>
-    <t>34,69%</t>
+    <t>34,43%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -312,13 +312,13 @@
     <t>84,11%</t>
   </si>
   <si>
-    <t>56,33%</t>
+    <t>52,72%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>65,31%</t>
+    <t>65,57%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -327,187 +327,205 @@
     <t>15,89%</t>
   </si>
   <si>
-    <t>43,67%</t>
+    <t>47,28%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>36,19%</t>
+    <t>34,94%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>20,83%</t>
+    <t>20,64%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>24,97%</t>
   </si>
   <si>
-    <t>63,81%</t>
+    <t>65,06%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>79,17%</t>
+    <t>79,36%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>18,81%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
     <t>85,73%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
   </si>
   <si>
     <t>14,27%</t>
   </si>
   <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
+    <t>48,82%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B52E6E-3A7D-404B-AA82-1421876DE340}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A4A04-D898-4B87-99F3-819B54D24814}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1964,7 +1982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907C0E08-CE5F-402F-9732-740F6F455F09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A9167-097C-4C66-B1D9-DBFD093D010F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2553,10 +2571,10 @@
         <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2565,13 +2583,13 @@
         <v>6824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2604,13 @@
         <v>2006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2601,13 +2619,13 @@
         <v>3964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -2616,13 +2634,13 @@
         <v>5969</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2708,13 @@
         <v>7157</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2705,13 +2723,13 @@
         <v>11388</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2720,13 +2738,13 @@
         <v>18545</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2759,13 @@
         <v>3045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2756,13 +2774,13 @@
         <v>5018</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2771,13 +2789,13 @@
         <v>8064</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2863,13 @@
         <v>22447</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2860,13 +2878,13 @@
         <v>23793</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -2875,13 +2893,13 @@
         <v>46240</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2914,13 @@
         <v>9084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2911,13 +2929,13 @@
         <v>9963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2926,13 +2944,13 @@
         <v>19047</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B25-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09AEF042-5E1B-48BD-AD79-DEB6F6E21966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3399D9-DF3A-4FC7-A0E1-65DC633D819C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CDB4B4A4-7FE0-4992-98CC-0D5588916F68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{60A003FE-7FF2-44FA-9655-50322CE6C26E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="161">
   <si>
     <t>Población cuyos problemas mentales le limita en 2012 (Tasa respuesta: 0,69%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,13 +78,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,2%</t>
   </si>
   <si>
-    <t>18,36%</t>
+    <t>31,96%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,7 +99,7 @@
     <t>78,33%</t>
   </si>
   <si>
-    <t>44,25%</t>
+    <t>44,14%</t>
   </si>
   <si>
     <t>32,8%</t>
@@ -108,7 +108,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,64%</t>
+    <t>68,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -120,55 +120,55 @@
     <t>21,67%</t>
   </si>
   <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>79,5%</t>
   </si>
   <si>
-    <t>47,76%</t>
+    <t>38,89%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>83,14%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
   </si>
   <si>
     <t>20,5%</t>
   </si>
   <si>
-    <t>52,24%</t>
+    <t>61,11%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>55,83%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>87,0%</t>
@@ -183,7 +183,7 @@
     <t>81,55%</t>
   </si>
   <si>
-    <t>40,05%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>13,0%</t>
@@ -198,7 +198,7 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>59,95%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -213,13 +213,13 @@
     <t>83,98%</t>
   </si>
   <si>
-    <t>31,32%</t>
+    <t>44,55%</t>
   </si>
   <si>
     <t>85,8%</t>
   </si>
   <si>
-    <t>58,18%</t>
+    <t>50,25%</t>
   </si>
   <si>
     <t>12,46%</t>
@@ -231,79 +231,79 @@
     <t>16,02%</t>
   </si>
   <si>
-    <t>68,68%</t>
+    <t>55,45%</t>
   </si>
   <si>
     <t>14,2%</t>
   </si>
   <si>
-    <t>41,82%</t>
+    <t>49,75%</t>
   </si>
   <si>
     <t>80,79%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>19,21%</t>
   </si>
   <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyos problemas mentales le limita en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población cuyos problemas mentales le limita en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>34,43%</t>
+    <t>35,66%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -312,13 +312,13 @@
     <t>84,11%</t>
   </si>
   <si>
-    <t>52,72%</t>
+    <t>57,89%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>65,57%</t>
+    <t>64,34%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -327,55 +327,55 @@
     <t>15,89%</t>
   </si>
   <si>
-    <t>47,28%</t>
+    <t>42,11%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>34,94%</t>
+    <t>36,12%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>20,64%</t>
+    <t>20,72%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
   </si>
   <si>
     <t>24,97%</t>
   </si>
   <si>
-    <t>65,06%</t>
+    <t>63,88%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>79,36%</t>
+    <t>79,28%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>18,46%</t>
+    <t>19,12%</t>
   </si>
   <si>
     <t>46,73%</t>
@@ -390,16 +390,16 @@
     <t>53,34%</t>
   </si>
   <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>81,54%</t>
+    <t>80,88%</t>
   </si>
   <si>
     <t>53,27%</t>
@@ -414,118 +414,112 @@
     <t>46,66%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
   </si>
   <si>
     <t>70,15%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>36,33%</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>69,7%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
   </si>
   <si>
     <t>29,85%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>63,67%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
   </si>
   <si>
     <t>30,3%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>53,78%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>70,49%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>70,83%</t>
   </si>
   <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>29,51%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
 </sst>
 </file>
@@ -937,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A4A04-D898-4B87-99F3-819B54D24814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DE31B8-1DF1-4AB6-BBB5-CD70BDFC800E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1982,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6A9167-097C-4C66-B1D9-DBFD093D010F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F95D79-E536-4AEF-B291-3033ABE52E69}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2714,7 +2708,7 @@
         <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -2723,13 +2717,13 @@
         <v>11388</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -2738,13 +2732,13 @@
         <v>18545</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2753,13 @@
         <v>3045</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2774,13 +2768,13 @@
         <v>5018</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -2789,13 +2783,13 @@
         <v>8064</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2857,13 @@
         <v>22447</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -2878,13 +2872,13 @@
         <v>23793</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -2893,13 +2887,13 @@
         <v>46240</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2908,13 @@
         <v>9084</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2929,13 +2923,13 @@
         <v>9963</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2944,13 +2938,13 @@
         <v>19047</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
